--- a/E4 Programmierung/Versuchsteil_C.xlsx
+++ b/E4 Programmierung/Versuchsteil_C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muell\Documents\7_Studium\4_Viertes_Semester\B04_Physik_Grundpraktikum\E4 Wechselstromwiderstände\E4 Programmierung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ccb2a2ecf688a24/Dokumente/1 UNI/3. Sem/GP Physik/Grundpraktikum/E4 Programmierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A55AD50-2058-4E7F-8367-863440ADD574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6A55AD50-2058-4E7F-8367-863440ADD574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122F76F4-952F-4E98-AA8E-7248A014997A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{59891A01-AE5D-4455-915C-4A8C655A9C2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{59891A01-AE5D-4455-915C-4A8C655A9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsteil_C" sheetId="1" r:id="rId1"/>
@@ -645,9 +645,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -685,7 +685,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -791,7 +791,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -933,7 +933,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -944,12 +944,12 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>209.2</v>
       </c>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>317.57</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>0.40536679401158621</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>388.17</v>
       </c>
@@ -1204,11 +1204,11 @@
         <v>0.50265482457436694</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="6"/>
+        <f>O5</f>
         <v>0.25132741228718347</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>431.22</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>3.5513656084058529</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>513.04999999999995</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>3.6376335988934447</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>565.42999999999995</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>3.4906585039886591</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>668.53</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0.20943951023931953</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>623.49</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0.39269908169872414</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>623.49</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>0.20943951023931953</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>724.26</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0.23271056693257725</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>809.02</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>3.4033920413889422</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>878.64</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0.54636393975474662</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>950.81</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>3.5903916041026207</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1070.5</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>0.69813170079773179</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1130.5</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>4.4351896285973549</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1242.0999999999999</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>5.497787143782138</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1311.1</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>5.8643062867009474</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1412.1</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>5.8343863566667586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1519.8</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>5.7998633604734646</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>776.09</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>600.37</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>400.6</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>6.0318578948924024</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>263.2</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>5.6217973801080507</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>999.31</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>684.42</v>
       </c>

--- a/E4 Programmierung/Versuchsteil_C.xlsx
+++ b/E4 Programmierung/Versuchsteil_C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ccb2a2ecf688a24/Dokumente/1 UNI/3. Sem/GP Physik/Grundpraktikum/E4 Programmierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6A55AD50-2058-4E7F-8367-863440ADD574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122F76F4-952F-4E98-AA8E-7248A014997A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6A55AD50-2058-4E7F-8367-863440ADD574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89BC1084-F713-4B1A-9CBB-84C0231B7682}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{59891A01-AE5D-4455-915C-4A8C655A9C2A}"/>
+    <workbookView minimized="1" xWindow="5130" yWindow="3967" windowWidth="15390" windowHeight="9713" xr2:uid="{59891A01-AE5D-4455-915C-4A8C655A9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Versuchsteil_C" sheetId="1" r:id="rId1"/>
@@ -642,6 +642,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -944,12 +948,12 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>209.2</v>
       </c>
@@ -1088,7 +1092,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>317.57</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>0.40536679401158621</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>388.17</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>0.25132741228718347</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>431.22</v>
       </c>
@@ -1268,7 +1272,7 @@
         <v>3.5513656084058529</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>513.04999999999995</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>3.6376335988934447</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>565.42999999999995</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>3.4906585039886591</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>668.53</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>0.20943951023931953</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>623.49</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>0.39269908169872414</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>623.49</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>0.20943951023931953</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>724.26</v>
       </c>
@@ -1628,7 +1632,7 @@
         <v>0.23271056693257725</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>809.02</v>
       </c>
@@ -1688,7 +1692,7 @@
         <v>3.4033920413889422</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>878.64</v>
       </c>
@@ -1748,7 +1752,7 @@
         <v>0.54636393975474662</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>950.81</v>
       </c>
@@ -1808,7 +1812,7 @@
         <v>3.5903916041026207</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1070.5</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>0.69813170079773179</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1130.5</v>
       </c>
@@ -1928,7 +1932,7 @@
         <v>4.4351896285973549</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1242.0999999999999</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>5.497787143782138</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1311.1</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>5.8643062867009474</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1412.1</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>5.8343863566667586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1519.8</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>5.7998633604734646</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>776.09</v>
       </c>
@@ -2228,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>600.37</v>
       </c>
@@ -2288,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>400.6</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>6.0318578948924024</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>263.2</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>5.6217973801080507</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>999.31</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>684.42</v>
       </c>
